--- a/Data_preparation/datasets/final_data/Arm_Holdings_plc.xlsx
+++ b/Data_preparation/datasets/final_data/Arm_Holdings_plc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,39 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -685,22 +652,22 @@
         <v>44651</v>
       </c>
       <c r="D2">
-        <v>564.8420934999623</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="E2">
-        <v>567.5840454101562</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="F2">
-        <v>568.4980293802209</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>487.1534560444658</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="H2">
-        <v>275900103</v>
+        <v>1059263999</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-1374000000</v>
@@ -729,22 +696,22 @@
         <v>44834</v>
       </c>
       <c r="D3">
-        <v>3829.951036061672</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="E3">
-        <v>3718.19677734375</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="F3">
-        <v>4026.941593801738</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>3570.453859038701</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="H3">
-        <v>933160187</v>
+        <v>1059263999</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>630000000</v>
@@ -806,22 +773,22 @@
         <v>44926</v>
       </c>
       <c r="D4">
-        <v>17.67499923706055</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="E4">
-        <v>19.1200008392334</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="F4">
-        <v>19.76000022888184</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>17.08499908447266</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="H4">
-        <v>795535712</v>
+        <v>1059263999</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>724000000</v>
@@ -883,22 +850,22 @@
         <v>45016</v>
       </c>
       <c r="D5">
-        <v>4646.163088703966</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="E5">
-        <v>4397.0390625</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="F5">
-        <v>4647.12125803552</v>
+        <v>69</v>
       </c>
       <c r="G5">
-        <v>4224.568582820331</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="H5">
-        <v>933160187</v>
+        <v>1059263999</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>-1996000000</v>
@@ -972,22 +939,22 @@
         <v>45107</v>
       </c>
       <c r="D6">
-        <v>299.8867087280755</v>
+        <v>56.09999847412109</v>
       </c>
       <c r="E6">
-        <v>279.6763610839844</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="F6">
-        <v>311.3327623979251</v>
+        <v>69</v>
       </c>
       <c r="G6">
-        <v>274.7053735580706</v>
+        <v>49.84999847412109</v>
       </c>
       <c r="H6">
-        <v>193969420</v>
+        <v>1059263999</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>675000000</v>
@@ -1055,22 +1022,22 @@
         <v>45199</v>
       </c>
       <c r="D7">
-        <v>1366.269412157012</v>
+        <v>53.47499847412109</v>
       </c>
       <c r="E7">
-        <v>1400.426147460938</v>
+        <v>49.29000091552734</v>
       </c>
       <c r="F7">
-        <v>1722.475366040805</v>
+        <v>56.33000183105469</v>
       </c>
       <c r="G7">
-        <v>1356.510344927319</v>
+        <v>46.5</v>
       </c>
       <c r="H7">
-        <v>134011000</v>
+        <v>1059263999</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>54915740908</v>
@@ -1171,22 +1138,22 @@
         <v>45291</v>
       </c>
       <c r="D8">
-        <v>124.5980016318655</v>
+        <v>73.5</v>
       </c>
       <c r="E8">
-        <v>132.1493988037109</v>
+        <v>70.66999816894531</v>
       </c>
       <c r="F8">
-        <v>136.1187273141222</v>
+        <v>79.94000244140625</v>
       </c>
       <c r="G8">
-        <v>122.5649354352075</v>
+        <v>65.11000061035156</v>
       </c>
       <c r="H8">
-        <v>229140423</v>
+        <v>1059263999</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>77104696386</v>
@@ -1299,22 +1266,22 @@
         <v>45382</v>
       </c>
       <c r="D9">
-        <v>4156.728619089413</v>
+        <v>126.3600006103516</v>
       </c>
       <c r="E9">
-        <v>4553.76318359375</v>
+        <v>101.2099990844727</v>
       </c>
       <c r="F9">
-        <v>5096.40944657156</v>
+        <v>135.4100036621094</v>
       </c>
       <c r="G9">
-        <v>3750.957352676668</v>
+        <v>85.61000061035156</v>
       </c>
       <c r="H9">
-        <v>175134528</v>
+        <v>1059263999</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>128499137622</v>
@@ -1418,22 +1385,22 @@
         <v>45473</v>
       </c>
       <c r="D10">
-        <v>2890.935410112718</v>
+        <v>163.4299926757812</v>
       </c>
       <c r="E10">
-        <v>2691.009033203125</v>
+        <v>144.1699981689453</v>
       </c>
       <c r="F10">
-        <v>3014.889763796666</v>
+        <v>188.75</v>
       </c>
       <c r="G10">
-        <v>2519.072349060875</v>
+        <v>129.1000061035156</v>
       </c>
       <c r="H10">
-        <v>104878138</v>
+        <v>1059263999</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>170218875919</v>
@@ -1546,22 +1513,22 @@
         <v>45565</v>
       </c>
       <c r="D11">
-        <v>31.23959479848472</v>
+        <v>142.8399963378906</v>
       </c>
       <c r="E11">
-        <v>28.76222801208496</v>
+        <v>141.3000030517578</v>
       </c>
       <c r="F11">
-        <v>31.50219696309808</v>
+        <v>164.1600036621094</v>
       </c>
       <c r="G11">
-        <v>28.63340577082776</v>
+        <v>132.8000030517578</v>
       </c>
       <c r="H11">
-        <v>1299391231</v>
+        <v>1059263999</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>149874480000</v>
@@ -1662,22 +1629,22 @@
         <v>45657</v>
       </c>
       <c r="D12">
-        <v>2476.994723535176</v>
+        <v>124.995002746582</v>
       </c>
       <c r="E12">
-        <v>2384.00341796875</v>
+        <v>159.5500030517578</v>
       </c>
       <c r="F12">
-        <v>2758.415779854624</v>
+        <v>182.8800048828125</v>
       </c>
       <c r="G12">
-        <v>2325.761495008725</v>
+        <v>124.995002746582</v>
       </c>
       <c r="H12">
-        <v>175134528</v>
+        <v>1059263999</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>129651360000</v>
@@ -1790,22 +1757,22 @@
         <v>45747</v>
       </c>
       <c r="D13">
-        <v>3590.70430246099</v>
+        <v>105.7200012207031</v>
       </c>
       <c r="E13">
-        <v>3714.694091796875</v>
+        <v>114.0500030517578</v>
       </c>
       <c r="F13">
-        <v>3714.694091796875</v>
+        <v>114.8300018310547</v>
       </c>
       <c r="G13">
-        <v>3048.748932944461</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>913159452</v>
+        <v>1059263999</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>112556660000</v>
@@ -1918,22 +1885,22 @@
         <v>45838</v>
       </c>
       <c r="D14">
-        <v>2937</v>
+        <v>160</v>
       </c>
       <c r="E14">
-        <v>3025</v>
+        <v>141.375</v>
       </c>
       <c r="F14">
-        <v>3125</v>
+        <v>166.8800048828125</v>
       </c>
       <c r="G14">
-        <v>2890</v>
+        <v>139.1100006103516</v>
       </c>
       <c r="H14">
-        <v>52985470</v>
+        <v>1059263999</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>170880531984</v>
